--- a/Results/RectangleResults/2022.2/Human_Rectangle_2022.2.xlsx
+++ b/Results/RectangleResults/2022.2/Human_Rectangle_2022.2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\RectangleResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TFG Infor\TFG---Geometry-Friends\Results\RectangleResults\2022.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Humano_Rectangle_2022.2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="72">
   <si>
     <t>Sub Goal A Star Agents</t>
   </si>
@@ -232,6 +232,9 @@
   </si>
   <si>
     <t>% sobre optimo</t>
+  </si>
+  <si>
+    <t>Porcentaje optimo</t>
   </si>
 </sst>
 </file>
@@ -239,7 +242,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -721,7 +724,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1044,10 +1047,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R56"/>
+  <dimension ref="A1:S56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="R60" sqref="R60"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44:S54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>41</v>
       </c>
@@ -2133,7 +2136,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C34">
         <v>5</v>
       </c>
@@ -2184,7 +2187,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C35">
         <v>13</v>
       </c>
@@ -2235,7 +2238,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C36">
         <v>8</v>
       </c>
@@ -2286,7 +2289,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="37" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C37">
         <v>11</v>
       </c>
@@ -2337,7 +2340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="38" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C38">
         <v>6</v>
       </c>
@@ -2388,7 +2391,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C39">
         <v>46</v>
       </c>
@@ -2439,7 +2442,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="40" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C40">
         <v>3</v>
       </c>
@@ -2490,7 +2493,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C41">
         <v>5</v>
       </c>
@@ -2541,7 +2544,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="42" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C42">
         <v>120</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C43">
         <v>3</v>
       </c>
@@ -2643,7 +2646,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="3:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>55</v>
       </c>
@@ -2689,8 +2692,14 @@
       <c r="Q44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R44" t="s">
+        <v>11</v>
+      </c>
+      <c r="S44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C45" s="3">
         <f>1000*($R34-C34)/$R34+300*C23</f>
         <v>1558.3333333333335</v>
@@ -2751,8 +2760,15 @@
         <f>AVERAGE(C45:P45)</f>
         <v>1449.9999999999998</v>
       </c>
-    </row>
-    <row r="46" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R45">
+        <v>1567</v>
+      </c>
+      <c r="S45" s="3">
+        <f>100*Q45/R45</f>
+        <v>92.533503509891489</v>
+      </c>
+    </row>
+    <row r="46" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C46" s="3">
         <f t="shared" ref="C46:P54" si="3">1000*($R35-C35)/$R35+300*C24</f>
         <v>1791.6666666666665</v>
@@ -2813,8 +2829,15 @@
         <f t="shared" ref="Q46:Q56" si="4">AVERAGE(C46:P46)</f>
         <v>1743.452380952381</v>
       </c>
-    </row>
-    <row r="47" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R46">
+        <v>1800</v>
+      </c>
+      <c r="S46" s="3">
+        <f t="shared" ref="S46:S54" si="5">100*Q46/R46</f>
+        <v>96.858465608465622</v>
+      </c>
+    </row>
+    <row r="47" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C47" s="3">
         <f t="shared" si="3"/>
         <v>1533.3333333333335</v>
@@ -2875,8 +2898,15 @@
         <f t="shared" si="4"/>
         <v>1527.3809523809525</v>
       </c>
-    </row>
-    <row r="48" spans="3:18" x14ac:dyDescent="0.25">
+      <c r="R47">
+        <v>1558</v>
+      </c>
+      <c r="S47" s="3">
+        <f t="shared" si="5"/>
+        <v>98.034720948713257</v>
+      </c>
+    </row>
+    <row r="48" spans="3:19" x14ac:dyDescent="0.25">
       <c r="C48" s="3">
         <f t="shared" si="3"/>
         <v>2108.3333333333335</v>
@@ -2937,8 +2967,15 @@
         <f t="shared" si="4"/>
         <v>1803.5714285714289</v>
       </c>
-    </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>2142</v>
+      </c>
+      <c r="S48" s="3">
+        <f t="shared" si="5"/>
+        <v>84.200346805388847</v>
+      </c>
+    </row>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C49" s="3">
         <f t="shared" si="3"/>
         <v>1550</v>
@@ -2999,8 +3036,15 @@
         <f t="shared" si="4"/>
         <v>1535.1190476190477</v>
       </c>
-    </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>1558</v>
+      </c>
+      <c r="S49" s="3">
+        <f t="shared" si="5"/>
+        <v>98.531389449232833</v>
+      </c>
+    </row>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C50" s="3">
         <f t="shared" si="3"/>
         <v>2116.6666666666665</v>
@@ -3061,8 +3105,15 @@
         <f t="shared" si="4"/>
         <v>1918.452380952381</v>
       </c>
-    </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>2358</v>
+      </c>
+      <c r="S50" s="3">
+        <f t="shared" si="5"/>
+        <v>81.359303687547964</v>
+      </c>
+    </row>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C51" s="3">
         <f t="shared" si="3"/>
         <v>1250</v>
@@ -3123,8 +3174,15 @@
         <f t="shared" si="4"/>
         <v>1145.2380952380952</v>
       </c>
-    </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>1283</v>
+      </c>
+      <c r="S51" s="3">
+        <f t="shared" si="5"/>
+        <v>89.262517165868672</v>
+      </c>
+    </row>
+    <row r="52" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C52" s="3">
         <f t="shared" si="3"/>
         <v>1558.3333333333335</v>
@@ -3185,8 +3243,15 @@
         <f t="shared" si="4"/>
         <v>1533.9285714285711</v>
       </c>
-    </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>1567</v>
+      </c>
+      <c r="S52" s="3">
+        <f t="shared" si="5"/>
+        <v>97.889506791867959</v>
+      </c>
+    </row>
+    <row r="53" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C53" s="3">
         <f t="shared" si="3"/>
         <v>600</v>
@@ -3247,8 +3312,15 @@
         <f t="shared" si="4"/>
         <v>1579.1666666666667</v>
       </c>
-    </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>2675</v>
+      </c>
+      <c r="S53" s="3">
+        <f t="shared" si="5"/>
+        <v>59.034267912772592</v>
+      </c>
+    </row>
+    <row r="54" spans="2:19" x14ac:dyDescent="0.25">
       <c r="C54" s="3">
         <f t="shared" si="3"/>
         <v>1250</v>
@@ -3309,8 +3381,15 @@
         <f t="shared" si="4"/>
         <v>1176.1904761904764</v>
       </c>
-    </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R54">
+        <v>1250</v>
+      </c>
+      <c r="S54" s="3">
+        <f t="shared" si="5"/>
+        <v>94.095238095238102</v>
+      </c>
+    </row>
+    <row r="55" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>69</v>
       </c>
@@ -3319,63 +3398,66 @@
         <v>15316.666666666668</v>
       </c>
       <c r="D55" s="3">
-        <f t="shared" ref="D55:P55" si="5">SUM(D45:D54)</f>
+        <f t="shared" ref="D55:P55" si="6">SUM(D45:D54)</f>
         <v>12375</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14725</v>
       </c>
       <c r="F55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15558.333333333332</v>
       </c>
       <c r="G55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15841.666666666666</v>
       </c>
       <c r="H55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17225</v>
       </c>
       <c r="I55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16950</v>
       </c>
       <c r="J55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14091.666666666668</v>
       </c>
       <c r="K55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16791.666666666664</v>
       </c>
       <c r="L55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15349.999999999998</v>
       </c>
       <c r="M55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14758.333333333334</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16049.999999999998</v>
       </c>
       <c r="O55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>14450.000000000002</v>
       </c>
       <c r="P55" s="3">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>16291.666666666668</v>
       </c>
       <c r="Q55" s="3">
         <f t="shared" si="4"/>
         <v>15412.5</v>
       </c>
-    </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="R55">
+        <v>17758</v>
+      </c>
+    </row>
+    <row r="56" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>70</v>
       </c>
@@ -3384,55 +3466,55 @@
         <v>0.8625220557870632</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" ref="D56:P56" si="6">D55/$I14</f>
+        <f t="shared" ref="D56:P56" si="7">D55/$I14</f>
         <v>0.69686901678116908</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.82920373915981527</v>
       </c>
       <c r="F56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.87613094567706562</v>
       </c>
       <c r="G56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.89208619589293081</v>
       </c>
       <c r="H56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.96998535871156666</v>
       </c>
       <c r="I56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.95449938056087402</v>
       </c>
       <c r="J56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.793539062206705</v>
       </c>
       <c r="K56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.94558321132259626</v>
       </c>
       <c r="L56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.86439914404775298</v>
       </c>
       <c r="M56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.83108082742050537</v>
       </c>
       <c r="N56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.90381799752224334</v>
       </c>
       <c r="O56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.81371776100912274</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.91742688741224621</v>
       </c>
       <c r="Q56" s="1">
